--- a/biology/Médecine/Pentraxine_3/Pentraxine_3.xlsx
+++ b/biology/Médecine/Pentraxine_3/Pentraxine_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pentraxine 3 est une protéine appartenant à la famille des pentraxines. Son gène est le PTX3 situé sur le chromosome 3 humain.
 </t>
@@ -511,9 +523,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">la protéine forme un monomère glycosylé de 45 kilodaltons relié entre eux sous forme de décamère[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">la protéine forme un monomère glycosylé de 45 kilodaltons relié entre eux sous forme de décamère.
 </t>
         </is>
       </c>
@@ -542,13 +556,15 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle intervient dans l'immunité ainsi que dans l'inflammation[6], en permettant de reconnaître les molécules pathogènes[7].
-Elle se fixe avec la fraction C1q du système du complément[5].
-Elle aurait un rôle protecteur contre l'athérome et l'ischémie myocardique[8]. Elle stimule l'expression du facteur tissulaire et inhibe l'activité du FGF2 (« fibroblast growth factor 2 »)[9], ce qui en fait un régulateur de l'angiogenèse et de la formation de l'athérome.
-Son taux s'élève en cas d'insuffisance rénale[10] et en cas de pré-éclampsie, témoignant d'une probable dysfonction endothéliale[11]. Son expression est également augmenté en cas d'hypertension artérielle[12].
-Elle se fixe aussi sur la sélectine P, permettant d'atténuer le recrutement des polynucléaires neutrophiles en cas d'inflammation[13].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle intervient dans l'immunité ainsi que dans l'inflammation, en permettant de reconnaître les molécules pathogènes.
+Elle se fixe avec la fraction C1q du système du complément.
+Elle aurait un rôle protecteur contre l'athérome et l'ischémie myocardique. Elle stimule l'expression du facteur tissulaire et inhibe l'activité du FGF2 (« fibroblast growth factor 2 »), ce qui en fait un régulateur de l'angiogenèse et de la formation de l'athérome.
+Son taux s'élève en cas d'insuffisance rénale et en cas de pré-éclampsie, témoignant d'une probable dysfonction endothéliale. Son expression est également augmenté en cas d'hypertension artérielle.
+Elle se fixe aussi sur la sélectine P, permettant d'atténuer le recrutement des polynucléaires neutrophiles en cas d'inflammation.
 </t>
         </is>
       </c>
